--- a/team_specific_matrix/Florida_B.xlsx
+++ b/team_specific_matrix/Florida_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2188796680497925</v>
+        <v>0.2203252032520325</v>
       </c>
       <c r="C2">
-        <v>0.5072614107883817</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01970954356846473</v>
+        <v>0.01788617886178862</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001037344398340249</v>
+        <v>0.0008130081300813008</v>
       </c>
       <c r="P2">
-        <v>0.1535269709543569</v>
+        <v>0.1577235772357723</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09958506224066389</v>
+        <v>0.09593495934959349</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01151631477927063</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C3">
-        <v>0.01727447216890595</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02303262955854127</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001919385796545105</v>
+        <v>0.001524390243902439</v>
       </c>
       <c r="P3">
-        <v>0.7562380038387716</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1900191938579655</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07534246575342465</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="P4">
-        <v>0.684931506849315</v>
+        <v>0.6892655367231638</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2397260273972603</v>
+        <v>0.231638418079096</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06745362563237774</v>
+        <v>0.06793478260869565</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02023608768971332</v>
+        <v>0.02445652173913044</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06070826306913996</v>
+        <v>0.06793478260869565</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2377740303541315</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01854974704890388</v>
+        <v>0.02309782608695652</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1888701517706577</v>
+        <v>0.1861413043478261</v>
       </c>
       <c r="R6">
-        <v>0.06408094435075885</v>
+        <v>0.05706521739130434</v>
       </c>
       <c r="S6">
-        <v>0.342327150084317</v>
+        <v>0.3451086956521739</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1302752293577982</v>
+        <v>0.1248206599713056</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02752293577981652</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06422018348623854</v>
+        <v>0.06025824964131994</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1467889908256881</v>
+        <v>0.1420373027259684</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009174311926605505</v>
+        <v>0.01147776183644189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.181651376146789</v>
+        <v>0.1865136298421808</v>
       </c>
       <c r="R7">
-        <v>0.06788990825688074</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="S7">
-        <v>0.3724770642201835</v>
+        <v>0.3830703012912482</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1021840873634945</v>
+        <v>0.1028325123152709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01950078003120125</v>
+        <v>0.02032019704433497</v>
       </c>
       <c r="E8">
-        <v>0.0015600624024961</v>
+        <v>0.001231527093596059</v>
       </c>
       <c r="F8">
-        <v>0.06786271450858035</v>
+        <v>0.06342364532019705</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1310452418096724</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01638065522620905</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1677067082683307</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R8">
-        <v>0.08034321372854915</v>
+        <v>0.08312807881773399</v>
       </c>
       <c r="S8">
-        <v>0.4134165366614664</v>
+        <v>0.4113300492610837</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08629441624365482</v>
+        <v>0.09707446808510638</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01184433164128596</v>
+        <v>0.01462765957446809</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05414551607445008</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1150592216582064</v>
+        <v>0.1077127659574468</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01184433164128596</v>
+        <v>0.01196808510638298</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2436548223350254</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="R9">
-        <v>0.07952622673434856</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S9">
-        <v>0.3976311336717428</v>
+        <v>0.3962765957446808</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.120119305856833</v>
+        <v>0.1225693685820406</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02304772234273319</v>
+        <v>0.02119292112737601</v>
       </c>
       <c r="E10">
-        <v>0.001084598698481562</v>
+        <v>0.0008739348918505571</v>
       </c>
       <c r="F10">
-        <v>0.05721258134490238</v>
+        <v>0.05964605636880053</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1306941431670282</v>
+        <v>0.1238802709198165</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02142082429501085</v>
+        <v>0.01769718155997378</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2106832971800434</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R10">
-        <v>0.09300433839479393</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="S10">
-        <v>0.3427331887201736</v>
+        <v>0.351321826523924</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1386946386946387</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09673659673659674</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K11">
-        <v>0.2051282051282051</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="L11">
-        <v>0.541958041958042</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01748251748251748</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7426778242677824</v>
+        <v>0.7479806138933764</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.194560669456067</v>
+        <v>0.1857835218093699</v>
       </c>
       <c r="K12">
-        <v>0.004184100418410041</v>
+        <v>0.003231017770597738</v>
       </c>
       <c r="L12">
-        <v>0.02092050209205021</v>
+        <v>0.02261712439418417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03765690376569038</v>
+        <v>0.04038772213247173</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6590909090909091</v>
+        <v>0.6526946107784432</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2754491017964072</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06818181818181818</v>
+        <v>0.0718562874251497</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01692047377326565</v>
+        <v>0.01783264746227709</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1387478849407783</v>
+        <v>0.1467764060356653</v>
       </c>
       <c r="I15">
-        <v>0.06429780033840947</v>
+        <v>0.07270233196159122</v>
       </c>
       <c r="J15">
-        <v>0.3857868020304568</v>
+        <v>0.3731138545953361</v>
       </c>
       <c r="K15">
-        <v>0.07614213197969544</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01353637901861252</v>
+        <v>0.01371742112482853</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04230118443316413</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2622673434856176</v>
+        <v>0.252400548696845</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02737520128824477</v>
+        <v>0.02287166454891995</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1561996779388084</v>
+        <v>0.1613722998729352</v>
       </c>
       <c r="I16">
-        <v>0.05958132045088567</v>
+        <v>0.06226175349428208</v>
       </c>
       <c r="J16">
-        <v>0.4122383252818035</v>
+        <v>0.4129606099110547</v>
       </c>
       <c r="K16">
-        <v>0.1175523349436393</v>
+        <v>0.1143583227445997</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02093397745571659</v>
+        <v>0.01905972045743329</v>
       </c>
       <c r="N16">
-        <v>0.00644122383252818</v>
+        <v>0.006353240152477764</v>
       </c>
       <c r="O16">
-        <v>0.06602254428341385</v>
+        <v>0.05844980940279543</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1336553945249598</v>
+        <v>0.1423125794155019</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0198383541513593</v>
+        <v>0.01792943898207056</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1844232182218957</v>
+        <v>0.183342972816657</v>
       </c>
       <c r="I17">
-        <v>0.09992652461425422</v>
+        <v>0.09947946790052054</v>
       </c>
       <c r="J17">
-        <v>0.4063188831741367</v>
+        <v>0.4112203585887796</v>
       </c>
       <c r="K17">
-        <v>0.09404849375459221</v>
+        <v>0.09427414690572586</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0213078618662748</v>
+        <v>0.02486986697513013</v>
       </c>
       <c r="N17">
-        <v>0.002204261572373255</v>
+        <v>0.002313475997686524</v>
       </c>
       <c r="O17">
-        <v>0.05363703159441587</v>
+        <v>0.05320994794679005</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.118295371050698</v>
+        <v>0.1133603238866397</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01225919439579685</v>
+        <v>0.01337295690936107</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1786339754816112</v>
+        <v>0.187221396731055</v>
       </c>
       <c r="I18">
-        <v>0.09281961471103327</v>
+        <v>0.09212481426448738</v>
       </c>
       <c r="J18">
-        <v>0.4273204903677758</v>
+        <v>0.424962852897474</v>
       </c>
       <c r="K18">
-        <v>0.0893169877408056</v>
+        <v>0.09361069836552749</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02626970227670753</v>
+        <v>0.02526002971768202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06129597197898424</v>
+        <v>0.0549777117384844</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1120840630472855</v>
+        <v>0.1084695393759287</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01590005678591709</v>
+        <v>0.01523980277902286</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2146507666098807</v>
+        <v>0.2140295831465711</v>
       </c>
       <c r="I19">
-        <v>0.09142532651902328</v>
+        <v>0.09188704616763783</v>
       </c>
       <c r="J19">
-        <v>0.3651334469051675</v>
+        <v>0.3644105782160466</v>
       </c>
       <c r="K19">
-        <v>0.1084611016467916</v>
+        <v>0.1102644554011654</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02044293015332197</v>
+        <v>0.01927386822052891</v>
       </c>
       <c r="N19">
-        <v>0.0008517887563884157</v>
+        <v>0.0006723442402510085</v>
       </c>
       <c r="O19">
-        <v>0.06501987507098239</v>
+        <v>0.06432093231734648</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.118114707552527</v>
+        <v>0.1199013895114299</v>
       </c>
     </row>
   </sheetData>
